--- a/10_Ch7_Sup/parts/RSP-01Lite_Parts_ToolList.xlsx
+++ b/10_Ch7_Sup/parts/RSP-01Lite_Parts_ToolList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhisu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhisu\Downloads\rsp\OHM\hobby_sat_book-main\10_Ch7_Sup\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2234E09-5668-4106-BAE9-0370765FE076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7DDC4F-8D77-4802-8360-1D15D0C9CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2290" yWindow="3780" windowWidth="25380" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用予定部材" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="307">
   <si>
     <t>NO</t>
   </si>
@@ -1058,6 +1056,14 @@
   </si>
   <si>
     <t>https://www.marutsu.co.jp/pc/i/2655053/</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.marutsu.co.jp/pc/i/13078170/</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LY05LOE</t>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -1377,14 +1383,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1609,31 +1615,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.0546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.94140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2">
         <v>45052</v>
       </c>
@@ -1641,10 +1647,10 @@
       <c r="F1" s="32"/>
       <c r="G1" s="4">
         <f>SUM(G3:G60)</f>
-        <v>20022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+        <v>20262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1678,14 +1684,14 @@
       <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1717,10 +1723,12 @@
       <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L3" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1754,12 +1762,12 @@
       <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="37" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1791,10 +1799,10 @@
       <c r="K5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L5" s="38"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="12">
-        <v>1080</v>
+        <v>1320</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1826,12 +1834,12 @@
       <c r="K6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1865,10 +1873,10 @@
       <c r="K7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L7" s="38"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1902,10 +1910,10 @@
       <c r="K8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L8" s="38"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1937,12 +1945,12 @@
       <c r="K9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="37" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1974,10 +1982,10 @@
       <c r="K10" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L10" s="38"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2009,8 +2017,10 @@
       <c r="K11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="37"/>
+      <c r="L11" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M11" s="35"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2024,7 +2034,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2058,10 +2068,10 @@
       <c r="K12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L12" s="38"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2093,12 +2103,12 @@
       <c r="K13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="37" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2128,10 +2138,10 @@
       <c r="K14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L14" s="38"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2165,10 +2175,10 @@
       <c r="K15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L15" s="38"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2198,10 +2208,10 @@
       <c r="K16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L16" s="38"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2233,10 +2243,10 @@
       <c r="K17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L17" s="38"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2268,10 +2278,10 @@
       <c r="K18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L18" s="38"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2303,10 +2313,10 @@
       <c r="K19" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L19" s="38"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2340,10 +2350,10 @@
       <c r="K20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L20" s="38"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2377,10 +2387,10 @@
       <c r="K21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L21" s="38"/>
+      <c r="M21" s="36"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -2412,10 +2422,10 @@
       <c r="K22" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L22" s="38"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -2449,10 +2459,10 @@
       <c r="K23" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L23" s="38"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -2489,7 +2499,7 @@
       <c r="L24" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="M24" s="37"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2503,7 +2513,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -2537,10 +2547,10 @@
       <c r="K25" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L25" s="38"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -2574,10 +2584,10 @@
       <c r="K26" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L26" s="38"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -2611,10 +2621,10 @@
       <c r="K27" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L27" s="38"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -2646,10 +2656,10 @@
       <c r="K28" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="37"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L28" s="38"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -2681,10 +2691,10 @@
       <c r="K29" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="37"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L29" s="38"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -2718,10 +2728,10 @@
       <c r="K30" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L30" s="38"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -2755,10 +2765,10 @@
       <c r="K31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="L31" s="38"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -2788,10 +2798,10 @@
       <c r="K32" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L32" s="38"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -2821,10 +2831,10 @@
       <c r="K33" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="37"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L33" s="38"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -2854,10 +2864,10 @@
       <c r="K34" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="37"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L34" s="38"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -2887,10 +2897,10 @@
       <c r="K35" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L35" s="38"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -2920,10 +2930,10 @@
       <c r="K36" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="37"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L36" s="38"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -2957,10 +2967,10 @@
       <c r="K37" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L37" s="38"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>36</v>
       </c>
@@ -2994,10 +3004,10 @@
       <c r="K38" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L38" s="38"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>37</v>
       </c>
@@ -3031,10 +3041,10 @@
       <c r="K39" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="38"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L39" s="38"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>38</v>
       </c>
@@ -3068,10 +3078,10 @@
       <c r="K40" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="38"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L40" s="38"/>
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>39</v>
       </c>
@@ -3105,10 +3115,10 @@
       <c r="K41" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="38"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L41" s="38"/>
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>40</v>
       </c>
@@ -3142,10 +3152,10 @@
       <c r="K42" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="38"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L42" s="38"/>
+      <c r="M42" s="36"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>41</v>
       </c>
@@ -3177,10 +3187,10 @@
       <c r="K43" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L43" s="38"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>42</v>
       </c>
@@ -3214,10 +3224,10 @@
       <c r="K44" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L44" s="38"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43</v>
       </c>
@@ -3247,10 +3257,10 @@
       <c r="K45" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="37"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L45" s="38"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44</v>
       </c>
@@ -3284,10 +3294,10 @@
       <c r="K46" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="37"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L46" s="38"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45</v>
       </c>
@@ -3321,10 +3331,10 @@
       <c r="K47" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="37"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L47" s="38"/>
+      <c r="M47" s="35"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46</v>
       </c>
@@ -3358,10 +3368,10 @@
       <c r="K48" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="37"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L48" s="38"/>
+      <c r="M48" s="35"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>47</v>
       </c>
@@ -3395,10 +3405,10 @@
       <c r="K49" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L49" s="38"/>
+      <c r="M49" s="35"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>48</v>
       </c>
@@ -3430,10 +3440,10 @@
         <v>228</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="37"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L50" s="38"/>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>49</v>
       </c>
@@ -3465,10 +3475,10 @@
       <c r="K51" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="37"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L51" s="38"/>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>50</v>
       </c>
@@ -3502,10 +3512,10 @@
       <c r="K52" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="L52" s="38"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>51</v>
       </c>
@@ -3537,10 +3547,10 @@
       <c r="K53" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="L53" s="40"/>
-      <c r="M53" s="37"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L53" s="38"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>52</v>
       </c>
@@ -3574,10 +3584,10 @@
       <c r="K54" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="L54" s="40"/>
-      <c r="M54" s="37"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L54" s="38"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>53</v>
       </c>
@@ -3611,2911 +3621,2911 @@
       <c r="K55" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="L55" s="40"/>
-      <c r="M55" s="37"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L55" s="38"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E501" s="3"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E502" s="3"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E503" s="3"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E504" s="3"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E505" s="3"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E506" s="3"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E507" s="3"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E508" s="3"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E525" s="3"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E544" s="3"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E545" s="3"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E546" s="3"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E547" s="3"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E548" s="3"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E549" s="3"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E550" s="3"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E551" s="3"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E552" s="3"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E553" s="3"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E554" s="3"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E555" s="3"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E560" s="3"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E561" s="3"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E562" s="3"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E563" s="3"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E564" s="3"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E565" s="3"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E569" s="3"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E570" s="3"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E571" s="3"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E572" s="3"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E573" s="3"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E574" s="3"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E575" s="3"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E576" s="3"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E577" s="3"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E578" s="3"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E579" s="3"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E580" s="3"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E581" s="3"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E582" s="3"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E583" s="3"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E584" s="3"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E585" s="3"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E586" s="3"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E587" s="3"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E588" s="3"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E589" s="3"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E590" s="3"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E591" s="3"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E592" s="3"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E594" s="3"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E596" s="3"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E598" s="3"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E599" s="3"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E600" s="3"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E602" s="3"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E603" s="3"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E605" s="3"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E606" s="3"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E619" s="3"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E620" s="3"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E772" s="3"/>
     </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E773" s="3"/>
     </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E774" s="3"/>
     </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E802" s="3"/>
     </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E803" s="3"/>
     </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E804" s="3"/>
     </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E805" s="3"/>
     </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E814" s="3"/>
     </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E815" s="3"/>
     </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E816" s="3"/>
     </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E817" s="3"/>
     </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E820" s="3"/>
     </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E821" s="3"/>
     </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E823" s="3"/>
     </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E826" s="3"/>
     </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E827" s="3"/>
     </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E828" s="3"/>
     </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E829" s="3"/>
     </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E832" s="3"/>
     </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E833" s="3"/>
     </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E835" s="3"/>
     </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E838" s="3"/>
     </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E839" s="3"/>
     </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E840" s="3"/>
     </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E841" s="3"/>
     </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E842" s="3"/>
     </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E843" s="3"/>
     </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E844" s="3"/>
     </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E845" s="3"/>
     </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E846" s="3"/>
     </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E847" s="3"/>
     </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E848" s="3"/>
     </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E849" s="3"/>
     </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E850" s="3"/>
     </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E853" s="3"/>
     </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E854" s="3"/>
     </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E855" s="3"/>
     </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E856" s="3"/>
     </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E857" s="3"/>
     </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E859" s="3"/>
     </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E860" s="3"/>
     </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E861" s="3"/>
     </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E862" s="3"/>
     </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E864" s="3"/>
     </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E865" s="3"/>
     </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E866" s="3"/>
     </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E867" s="3"/>
     </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E868" s="3"/>
     </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E869" s="3"/>
     </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E870" s="3"/>
     </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E871" s="3"/>
     </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E872" s="3"/>
     </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E873" s="3"/>
     </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E874" s="3"/>
     </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E875" s="3"/>
     </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E876" s="3"/>
     </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E877" s="3"/>
     </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E878" s="3"/>
     </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E879" s="3"/>
     </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E880" s="3"/>
     </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E881" s="3"/>
     </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E882" s="3"/>
     </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E883" s="3"/>
     </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E884" s="3"/>
     </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E885" s="3"/>
     </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E886" s="3"/>
     </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E887" s="3"/>
     </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E888" s="3"/>
     </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E889" s="3"/>
     </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E890" s="3"/>
     </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E891" s="3"/>
     </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E892" s="3"/>
     </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E893" s="3"/>
     </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E894" s="3"/>
     </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E895" s="3"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E896" s="3"/>
     </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E897" s="3"/>
     </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E898" s="3"/>
     </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E899" s="3"/>
     </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E900" s="3"/>
     </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E901" s="3"/>
     </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E902" s="3"/>
     </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E903" s="3"/>
     </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E904" s="3"/>
     </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E905" s="3"/>
     </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E906" s="3"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E907" s="3"/>
     </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E908" s="3"/>
     </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E909" s="3"/>
     </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E910" s="3"/>
     </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E911" s="3"/>
     </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E912" s="3"/>
     </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E913" s="3"/>
     </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E914" s="3"/>
     </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E915" s="3"/>
     </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E916" s="3"/>
     </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E917" s="3"/>
     </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E918" s="3"/>
     </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E919" s="3"/>
     </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E920" s="3"/>
     </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E921" s="3"/>
     </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E922" s="3"/>
     </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E923" s="3"/>
     </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E924" s="3"/>
     </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E925" s="3"/>
     </row>
-    <row r="926" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E926" s="3"/>
     </row>
-    <row r="927" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E927" s="3"/>
     </row>
-    <row r="928" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E928" s="3"/>
     </row>
-    <row r="929" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E929" s="3"/>
     </row>
-    <row r="930" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E930" s="3"/>
     </row>
-    <row r="931" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E931" s="3"/>
     </row>
-    <row r="932" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E932" s="3"/>
     </row>
-    <row r="933" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E933" s="3"/>
     </row>
-    <row r="934" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E934" s="3"/>
     </row>
-    <row r="935" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E935" s="3"/>
     </row>
-    <row r="936" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E936" s="3"/>
     </row>
-    <row r="937" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E937" s="3"/>
     </row>
-    <row r="938" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E938" s="3"/>
     </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E939" s="3"/>
     </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E940" s="3"/>
     </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E941" s="3"/>
     </row>
-    <row r="942" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E942" s="3"/>
     </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E943" s="3"/>
     </row>
-    <row r="944" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E944" s="3"/>
     </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E945" s="3"/>
     </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E946" s="3"/>
     </row>
-    <row r="947" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E947" s="3"/>
     </row>
-    <row r="948" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E948" s="3"/>
     </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E949" s="3"/>
     </row>
-    <row r="950" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E950" s="3"/>
     </row>
-    <row r="951" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E951" s="3"/>
     </row>
-    <row r="952" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E952" s="3"/>
     </row>
-    <row r="953" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E953" s="3"/>
     </row>
-    <row r="954" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E954" s="3"/>
     </row>
-    <row r="955" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E955" s="3"/>
     </row>
-    <row r="956" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E956" s="3"/>
     </row>
-    <row r="957" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E957" s="3"/>
     </row>
-    <row r="958" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E958" s="3"/>
     </row>
-    <row r="959" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E959" s="3"/>
     </row>
-    <row r="960" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E960" s="3"/>
     </row>
-    <row r="961" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E961" s="3"/>
     </row>
-    <row r="962" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E962" s="3"/>
     </row>
-    <row r="963" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E963" s="3"/>
     </row>
-    <row r="964" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E964" s="3"/>
     </row>
-    <row r="965" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E965" s="3"/>
     </row>
-    <row r="966" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E966" s="3"/>
     </row>
-    <row r="967" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E967" s="3"/>
     </row>
-    <row r="968" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E968" s="3"/>
     </row>
-    <row r="969" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E969" s="3"/>
     </row>
-    <row r="970" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E970" s="3"/>
     </row>
-    <row r="971" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E971" s="3"/>
     </row>
-    <row r="972" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E972" s="3"/>
     </row>
-    <row r="973" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E973" s="3"/>
     </row>
-    <row r="974" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E974" s="3"/>
     </row>
-    <row r="975" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E975" s="3"/>
     </row>
-    <row r="976" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E976" s="3"/>
     </row>
-    <row r="977" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E977" s="3"/>
     </row>
-    <row r="978" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E978" s="3"/>
     </row>
-    <row r="979" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E979" s="3"/>
     </row>
-    <row r="980" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E980" s="3"/>
     </row>
-    <row r="981" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E981" s="3"/>
     </row>
-    <row r="982" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E982" s="3"/>
     </row>
-    <row r="983" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E983" s="3"/>
     </row>
-    <row r="984" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E984" s="3"/>
     </row>
-    <row r="985" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E985" s="3"/>
     </row>
-    <row r="986" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E986" s="3"/>
     </row>
-    <row r="987" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E987" s="3"/>
     </row>
-    <row r="988" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E988" s="3"/>
     </row>
-    <row r="989" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E989" s="3"/>
     </row>
-    <row r="990" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E990" s="3"/>
     </row>
-    <row r="991" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E991" s="3"/>
     </row>
-    <row r="992" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E992" s="3"/>
     </row>
-    <row r="993" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E994" s="3"/>
     </row>
-    <row r="995" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E995" s="3"/>
     </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E996" s="3"/>
     </row>
-    <row r="997" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E997" s="3"/>
     </row>
-    <row r="998" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E998" s="3"/>
     </row>
-    <row r="999" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E999" s="3"/>
     </row>
-    <row r="1000" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1000" s="3"/>
     </row>
-    <row r="1001" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1001" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1001" s="3"/>
     </row>
-    <row r="1002" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1002" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1002" s="3"/>
     </row>
-    <row r="1003" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1003" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1003" s="3"/>
     </row>
-    <row r="1004" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1004" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1004" s="3"/>
     </row>
-    <row r="1005" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1005" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1005" s="3"/>
     </row>
-    <row r="1006" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1006" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1006" s="3"/>
     </row>
-    <row r="1007" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1007" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1007" s="3"/>
     </row>
-    <row r="1008" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1008" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1008" s="3"/>
     </row>
-    <row r="1009" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1009" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1009" s="3"/>
     </row>
-    <row r="1010" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1010" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1010" s="3"/>
     </row>
-    <row r="1011" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1011" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1011" s="3"/>
     </row>
-    <row r="1012" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1012" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1012" s="3"/>
     </row>
-    <row r="1013" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1013" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1013" s="3"/>
     </row>
-    <row r="1014" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1014" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1014" s="3"/>
     </row>
-    <row r="1015" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1015" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1015" s="3"/>
     </row>
-    <row r="1016" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1016" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1016" s="3"/>
     </row>
-    <row r="1017" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1017" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1017" s="3"/>
     </row>
-    <row r="1018" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1018" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1018" s="3"/>
     </row>
-    <row r="1019" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1019" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1019" s="3"/>
     </row>
-    <row r="1020" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1020" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1020" s="3"/>
     </row>
-    <row r="1021" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1021" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1021" s="3"/>
     </row>
-    <row r="1022" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1022" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1022" s="3"/>
     </row>
-    <row r="1023" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="1023" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1023" s="3"/>
     </row>
   </sheetData>
@@ -6578,10 +6588,12 @@
     <hyperlink ref="K54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="K55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="L24" r:id="rId53" xr:uid="{49C3630F-DC2C-4F58-AB04-B4B0A2CC9C89}"/>
+    <hyperlink ref="L3" r:id="rId54" xr:uid="{5E452020-7735-4C5F-9AF8-FBFF1A6ACEBF}"/>
+    <hyperlink ref="L11" r:id="rId55" xr:uid="{69B0D37F-72AF-421D-ACFF-CCEC624CA128}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId54"/>
+  <pageSetup paperSize="8" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -6596,45 +6608,45 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.71875" customWidth="1"/>
-    <col min="7" max="7" width="24.38671875" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6656,7 +6668,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -6678,7 +6690,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -6700,7 +6712,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -6722,7 +6734,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -6740,7 +6752,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -6762,7 +6774,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -6784,7 +6796,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -6802,7 +6814,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -6824,7 +6836,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -6844,7 +6856,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -6864,7 +6876,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -6882,7 +6894,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -6902,7 +6914,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -6920,7 +6932,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -6938,7 +6950,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -6956,7 +6968,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -6974,7 +6986,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -6986,7 +6998,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -6998,7 +7010,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7010,7 +7022,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -7022,7 +7034,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -7034,7 +7046,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -7046,7 +7058,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -7058,7 +7070,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -7070,7 +7082,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -7082,7 +7094,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -7094,7 +7106,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -7106,7 +7118,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -7118,7 +7130,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -7130,7 +7142,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -7142,7 +7154,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -7154,7 +7166,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -7166,7 +7178,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -7178,7 +7190,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -7190,7 +7202,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -7202,7 +7214,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>37</v>
       </c>
